--- a/Merge.xlsx
+++ b/Merge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KNL\Desktop\Ale\Upwork\AccountingAPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FB1260-D177-4D20-8314-80608862EF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F6D0C-816C-430E-95BA-31AD6C23C322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1545" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
   <si>
     <t>tag_tiingo</t>
   </si>
@@ -295,12 +295,6 @@
     <t>INVENTORY</t>
   </si>
   <si>
-    <t>operatingIncome</t>
-  </si>
-  <si>
-    <t>Operating Income (Loss), Total</t>
-  </si>
-  <si>
     <t>accoci</t>
   </si>
   <si>
@@ -458,15 +452,6 @@
   </si>
   <si>
     <t>otherCurrentAssets</t>
-  </si>
-  <si>
-    <t>opinc</t>
-  </si>
-  <si>
-    <t>Operating Income</t>
-  </si>
-  <si>
-    <t>netIncome / grossIncome</t>
   </si>
   <si>
     <t>OPINC</t>
@@ -938,14 +923,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -963,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -1025,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>14</v>
@@ -1308,7 +1300,7 @@
         <v>77</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>77</v>
@@ -1340,7 +1332,7 @@
         <v>86</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1371,236 +1363,210 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="A24" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="G24" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>149</v>
+      <c r="H24" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
